--- a/biology/Zoologie/Hypsicalotes_kinabaluensis/Hypsicalotes_kinabaluensis.xlsx
+++ b/biology/Zoologie/Hypsicalotes_kinabaluensis/Hypsicalotes_kinabaluensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypsicalotes kinabaluensis, unique représentant du genre Hypsicalotes, est une espèce de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypsicalotes kinabaluensis, unique représentant du genre Hypsicalotes, est une espèce de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Indonésie au Kalimantan, à Sumatra, à Nias et à Sipura et en Malaisie au Sabah, à Penang et à Tioman[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Indonésie au Kalimantan, à Sumatra, à Nias et à Sipura et en Malaisie au Sabah, à Penang et à Tioman.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de kinabalu et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le mont Kinabalu.
 </t>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,7 +617,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>de Grijs, 1937 : Eine neue Eidechse aus Nord-Borneo: Calotes kinabaluensis. Zoologische Anzeiger, vol. 117, no 1, p. 136-138.
 Manthey &amp; Denzer, 2000 : Description of a new genus, Hypsicalotes gen. nov. (Sauria: Agamidae) from Mt. Kinabalu, North Borneo, with remarks on the generic identity of Gonocephalus schultzewestrumi Urban, 1999. Hamadryad, vol. 25, no 1, p. 13-20.</t>
